--- a/demo.xlsx
+++ b/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Code/github.com/liyi1472/ljj-excel-table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A125FC9-1D48-D048-8617-521A680CF1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436556BD-7639-544A-9944-B32E1AAF98DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="13840" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" r:id="rId1"/>
@@ -494,6 +494,9 @@
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="1" column="1"/>
     </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
   </extLst>
 </slicerCacheDefinition>
 </file>
@@ -504,6 +507,9 @@
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="1" column="2"/>
     </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
   </extLst>
 </slicerCacheDefinition>
 </file>
@@ -514,6 +520,9 @@
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="1" column="3"/>
     </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
   </extLst>
 </slicerCacheDefinition>
 </file>
@@ -528,7 +537,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2551ED90-5885-4790-8D9B-89D0431C0F98}" name="表1" displayName="表1" ref="B1:E10" totalsRowShown="0">
-  <autoFilter ref="B1:E10" xr:uid="{2551ED90-5885-4790-8D9B-89D0431C0F98}"/>
+  <autoFilter ref="B1:E10" xr:uid="{2551ED90-5885-4790-8D9B-89D0431C0F98}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="青山洋服"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="绿"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="上衣"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C0255B8B-3BC5-4CA7-A68E-48871E38A6A6}" name="商场"/>
     <tableColumn id="2" xr3:uid="{3B634D04-9ACF-468D-9215-8F1F486BE8C2}" name="颜色"/>
@@ -839,10 +864,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="4">
         <f>SUBTOTAL(3, 原始数据!$B$2:B2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -857,10 +882,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="4">
         <f>SUBTOTAL(3, 原始数据!$B$2:B3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -875,10 +900,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="4">
         <f>SUBTOTAL(3, 原始数据!$B$2:B4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -893,10 +918,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="4">
         <f>SUBTOTAL(3, 原始数据!$B$2:B5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -911,10 +936,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="4">
         <f>SUBTOTAL(3, 原始数据!$B$2:B6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -929,10 +954,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="4">
         <f>SUBTOTAL(3, 原始数据!$B$2:B7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -950,7 +975,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4">
         <f>SUBTOTAL(3, 原始数据!$B$2:B8)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -965,10 +990,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="4">
         <f>SUBTOTAL(3, 原始数据!$B$2:B9)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -983,10 +1008,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="4">
         <f>SUBTOTAL(3, 原始数据!$B$2:B10)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1018,7 +1043,7 @@
   <dimension ref="A14:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1029,7 +1054,7 @@
       </c>
       <c r="C14">
         <f>SUBTOTAL(3, 原始数据!B:B)-1</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1049,11 +1074,11 @@
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="str">
         <f>VLOOKUP(1,原始数据!$A:$E,2,FALSE)</f>
-        <v>优衣库</v>
+        <v>青山洋服</v>
       </c>
       <c r="B17" s="5" t="str">
         <f>VLOOKUP(1,原始数据!$A:$E,3,FALSE)</f>
-        <v>红</v>
+        <v>绿</v>
       </c>
       <c r="C17" s="5" t="str">
         <f>VLOOKUP(1,原始数据!$A:$E,4,FALSE)</f>
@@ -1061,7 +1086,7 @@
       </c>
       <c r="D17" s="5">
         <f>VLOOKUP(1,原始数据!$A:$E,5,FALSE)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1101,12 +1126,12 @@
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="9" t="str">
         <f>VLOOKUP(1,原始数据!$A:$E,2,FALSE)</f>
-        <v>优衣库</v>
+        <v>青山洋服</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9">
         <f>VLOOKUP(1,原始数据!$A:$E,5,FALSE)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
@@ -1121,7 +1146,7 @@
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="7" t="str">
         <f>VLOOKUP(1,原始数据!$A:$E,3,FALSE)</f>
-        <v>红</v>
+        <v>绿</v>
       </c>
       <c r="B4" s="7" t="str">
         <f>VLOOKUP(1,原始数据!$A:$E,4,FALSE)</f>
